--- a/nmadb/501319.xlsx
+++ b/nmadb/501319.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afshin\Desktop\Working folder\St. Michael\NMA\NMA_DA\To be verified\To be verified_From others\Verified_Completed\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -65,12 +60,6 @@
   </si>
   <si>
     <t>t2</t>
-  </si>
-  <si>
-    <t>SMD1</t>
-  </si>
-  <si>
-    <t>se1</t>
   </si>
   <si>
     <r>
@@ -119,16 +108,22 @@
   <si>
     <t xml:space="preserve">Oermann </t>
   </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,70 +523,70 @@
     </xf>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -609,7 +604,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -683,7 +678,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -718,7 +712,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -894,17 +887,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="8" bestFit="1" customWidth="1"/>
@@ -915,7 +908,7 @@
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
@@ -932,10 +925,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="5" t="s">
@@ -943,15 +936,15 @@
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="38">
         <v>2011</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="41">
         <v>1</v>
@@ -979,12 +972,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="39">
         <v>2011</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="38">
         <v>2</v>
@@ -1010,12 +1003,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="39">
         <v>1999</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="44">
         <v>3</v>
@@ -1041,12 +1034,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="39">
         <v>2010</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="44">
         <v>4</v>
@@ -1072,12 +1065,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="39">
         <v>2002</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="44">
         <v>5</v>
@@ -1103,12 +1096,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="39">
         <v>1987</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="44">
         <v>6</v>
@@ -1134,12 +1127,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="39">
         <v>2007</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="44">
         <v>7</v>
@@ -1161,12 +1154,12 @@
       <c r="J8" s="23"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="39">
         <v>2007</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="38">
         <v>8</v>
@@ -1188,12 +1181,12 @@
       <c r="J9" s="23"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="39">
         <v>2008</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="38">
         <v>9</v>
@@ -1215,12 +1208,12 @@
       <c r="J10" s="23"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="38">
         <v>2009</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="38">
         <v>10</v>
@@ -1239,12 +1232,12 @@
       </c>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="38">
         <v>2010</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="38">
         <v>11</v>
@@ -1263,7 +1256,7 @@
       </c>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1272,7 +1265,7 @@
       <c r="F13" s="22"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -1281,12 +1274,12 @@
       <c r="F14" s="22"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="9"/>
       <c r="B15" s="16"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="13"/>
       <c r="C16" s="9"/>
@@ -1295,7 +1288,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="9"/>
       <c r="B17" s="16"/>
       <c r="C17" s="9"/>
@@ -1304,44 +1297,44 @@
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="16"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="D19" s="4"/>
       <c r="E19" s="6"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="B20" s="16"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="B21" s="16"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="B22" s="16"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="6"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="B24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="B25" s="13"/>
       <c r="D25" s="4"/>
       <c r="E25" s="6"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="B26" s="16"/>
     </row>
   </sheetData>
@@ -1356,12 +1349,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1373,12 +1366,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
